--- a/biology/Médecine/1115_en_santé_et_médecine/1115_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1115_en_santé_et_médecine/1115_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1115_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1115_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1115 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1115_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1115_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation par des bourgeois de Pontorson, en Normandie, au bord du Couesnon, d'un hôpital qui deviendra hôpital Saint-Antoine de la Charité et qui est à l'origine de l'actuel centre hospitalier de l'Estran[1].
-Construction d'une chapelle à L'Argentière, en Savoie, sur le site d'une « « nécropole médiévale » [qui] serait celui d'une maladrerie[2] ».
-Peu après 1115 : à Partney, dans le Lincolnshire, en Angleterre, Walter, fils de Gilbert de Gant (en), son fondateur, fait construire l'hôpital Sainte-Marie-Madeleine (Hospital of St. Mary Magdalene) et le confie à l'abbaye de Bardney, mais « on ne sait s'il était destiné aux malades ou aux vieillards nécessiteux[3],[4] ».
-Vers 1115-1118 : Gaston le Croisé, seigneur de Béarn, fait construire à Aubertin et place sous le contrôle du prieuré de Sainte-Christine du Somport un hôpital de pèlerins qui n'ouvrira qu'en 1128[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation par des bourgeois de Pontorson, en Normandie, au bord du Couesnon, d'un hôpital qui deviendra hôpital Saint-Antoine de la Charité et qui est à l'origine de l'actuel centre hospitalier de l'Estran.
+Construction d'une chapelle à L'Argentière, en Savoie, sur le site d'une « « nécropole médiévale » [qui] serait celui d'une maladrerie ».
+Peu après 1115 : à Partney, dans le Lincolnshire, en Angleterre, Walter, fils de Gilbert de Gant (en), son fondateur, fait construire l'hôpital Sainte-Marie-Madeleine (Hospital of St. Mary Magdalene) et le confie à l'abbaye de Bardney, mais « on ne sait s'il était destiné aux malades ou aux vieillards nécessiteux, ».
+Vers 1115-1118 : Gaston le Croisé, seigneur de Béarn, fait construire à Aubertin et place sous le contrôle du prieuré de Sainte-Christine du Somport un hôpital de pèlerins qui n'ouvrira qu'en 1128.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1115_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1115_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bernardino Baldini (mort en 1600), médecin, philosophe, mathématicien et poète italien[6].
-Vers 1115 : Romuald II (mort en 1181), archevêque de Salerne, « dont il est notoire qu'il fut médecin[7] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bernardino Baldini (mort en 1600), médecin, philosophe, mathématicien et poète italien.
+Vers 1115 : Romuald II (mort en 1181), archevêque de Salerne, « dont il est notoire qu'il fut médecin ».</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1115_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1115_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1115 ou 1116[8] : Yves (né vers 1040), évêque de Chartres, fondateur de nombreux établissements consacrés « au soin des pauvres et des malades […], promoteur du développement sans égal des institutions hospitalières durant tout le Moyen Âge[9] » et dont Clerval[10], « s'appuyant sur quelques passages de ses ouvrages, n'hésite pas à dire qu'il était médecin[11] », quoique des auteurs plus récents ne relèvent dans ses écrits que « des comparaisons médicales[12] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1115 ou 1116 : Yves (né vers 1040), évêque de Chartres, fondateur de nombreux établissements consacrés « au soin des pauvres et des malades […], promoteur du développement sans égal des institutions hospitalières durant tout le Moyen Âge » et dont Clerval, « s'appuyant sur quelques passages de ses ouvrages, n'hésite pas à dire qu'il était médecin », quoique des auteurs plus récents ne relèvent dans ses écrits que « des comparaisons médicales ».</t>
         </is>
       </c>
     </row>
